--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Rpsa</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H2">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I2">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J2">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.7148512276327</v>
+        <v>53.73758233333334</v>
       </c>
       <c r="N2">
-        <v>26.7148512276327</v>
+        <v>161.212747</v>
       </c>
       <c r="O2">
-        <v>0.03062324921763431</v>
+        <v>0.05888757418975077</v>
       </c>
       <c r="P2">
-        <v>0.03062324921763431</v>
+        <v>0.05888757418975077</v>
       </c>
       <c r="Q2">
-        <v>30.42530463656038</v>
+        <v>65.96859641042145</v>
       </c>
       <c r="R2">
-        <v>30.42530463656038</v>
+        <v>593.7173676937931</v>
       </c>
       <c r="S2">
-        <v>0.0003986631453089477</v>
+        <v>0.0006515799106851979</v>
       </c>
       <c r="T2">
-        <v>0.0003986631453089477</v>
+        <v>0.0006515799106851978</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H3">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I3">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J3">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>388.908299118394</v>
+        <v>389.2008666666666</v>
       </c>
       <c r="N3">
-        <v>388.908299118394</v>
+        <v>1167.6026</v>
       </c>
       <c r="O3">
-        <v>0.4458058053637982</v>
+        <v>0.4265002985877158</v>
       </c>
       <c r="P3">
-        <v>0.4458058053637982</v>
+        <v>0.4265002985877158</v>
       </c>
       <c r="Q3">
-        <v>442.9241763519347</v>
+        <v>477.7854488588222</v>
       </c>
       <c r="R3">
-        <v>442.9241763519347</v>
+        <v>4300.0690397294</v>
       </c>
       <c r="S3">
-        <v>0.005803640995122658</v>
+        <v>0.004719145427276944</v>
       </c>
       <c r="T3">
-        <v>0.005803640995122658</v>
+        <v>0.004719145427276943</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H4">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I4">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J4">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>126.78319617521</v>
+        <v>132.7388736666666</v>
       </c>
       <c r="N4">
-        <v>126.78319617521</v>
+        <v>398.216621</v>
       </c>
       <c r="O4">
-        <v>0.1453316501746329</v>
+        <v>0.1454600287453036</v>
       </c>
       <c r="P4">
-        <v>0.1453316501746329</v>
+        <v>0.1454600287453036</v>
       </c>
       <c r="Q4">
-        <v>144.392245854531</v>
+        <v>162.9510819927332</v>
       </c>
       <c r="R4">
-        <v>144.392245854531</v>
+        <v>1466.559737934599</v>
       </c>
       <c r="S4">
-        <v>0.001891973394455973</v>
+        <v>0.001609487805232556</v>
       </c>
       <c r="T4">
-        <v>0.001891973394455973</v>
+        <v>0.001609487805232556</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H5">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I5">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J5">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>130.898915652117</v>
+        <v>132.282102</v>
       </c>
       <c r="N5">
-        <v>130.898915652117</v>
+        <v>396.846306</v>
       </c>
       <c r="O5">
-        <v>0.150049501761275</v>
+        <v>0.1449594819354051</v>
       </c>
       <c r="P5">
-        <v>0.150049501761275</v>
+        <v>0.1449594819354051</v>
       </c>
       <c r="Q5">
-        <v>149.0796018804556</v>
+        <v>162.390346201846</v>
       </c>
       <c r="R5">
-        <v>149.0796018804556</v>
+        <v>1461.513115816614</v>
       </c>
       <c r="S5">
-        <v>0.001953391878799839</v>
+        <v>0.001603949349112144</v>
       </c>
       <c r="T5">
-        <v>0.001953391878799839</v>
+        <v>0.001603949349112144</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H6">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I6">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J6">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.2797555117349</v>
+        <v>58.687468</v>
       </c>
       <c r="N6">
-        <v>58.2797555117349</v>
+        <v>176.062404</v>
       </c>
       <c r="O6">
-        <v>0.06680611702350119</v>
+        <v>0.06431183681508679</v>
       </c>
       <c r="P6">
-        <v>0.06680611702350119</v>
+        <v>0.06431183681508679</v>
       </c>
       <c r="Q6">
-        <v>66.37429123148897</v>
+        <v>72.04510740409732</v>
       </c>
       <c r="R6">
-        <v>66.37429123148897</v>
+        <v>648.405966636876</v>
       </c>
       <c r="S6">
-        <v>0.0008697031640630087</v>
+        <v>0.0007115983543989933</v>
       </c>
       <c r="T6">
-        <v>0.0008697031640630087</v>
+        <v>0.0007115983543989931</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.13889103769703</v>
+        <v>1.227606333333333</v>
       </c>
       <c r="H7">
-        <v>1.13889103769703</v>
+        <v>3.682819</v>
       </c>
       <c r="I7">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386903</v>
       </c>
       <c r="J7">
-        <v>0.01301831632808509</v>
+        <v>0.01106481154386902</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.786527142657</v>
+        <v>145.898463</v>
       </c>
       <c r="N7">
-        <v>140.786527142657</v>
+        <v>437.695389</v>
       </c>
       <c r="O7">
-        <v>0.1613836764591583</v>
+        <v>0.1598807797267379</v>
       </c>
       <c r="P7">
-        <v>0.1613836764591583</v>
+        <v>0.1598807797267379</v>
       </c>
       <c r="Q7">
-        <v>160.3405139912617</v>
+        <v>179.105877202399</v>
       </c>
       <c r="R7">
-        <v>160.3405139912617</v>
+        <v>1611.952894821591</v>
       </c>
       <c r="S7">
-        <v>0.002100943750334661</v>
+        <v>0.00176905069716319</v>
       </c>
       <c r="T7">
-        <v>0.002100943750334661</v>
+        <v>0.00176905069716319</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H8">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I8">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J8">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.7148512276327</v>
+        <v>53.73758233333334</v>
       </c>
       <c r="N8">
-        <v>26.7148512276327</v>
+        <v>161.212747</v>
       </c>
       <c r="O8">
-        <v>0.03062324921763431</v>
+        <v>0.05888757418975077</v>
       </c>
       <c r="P8">
-        <v>0.03062324921763431</v>
+        <v>0.05888757418975077</v>
       </c>
       <c r="Q8">
-        <v>917.0868738525885</v>
+        <v>1846.552299170934</v>
       </c>
       <c r="R8">
-        <v>917.0868738525885</v>
+        <v>16618.9706925384</v>
       </c>
       <c r="S8">
-        <v>0.01201660072163391</v>
+        <v>0.01823862333956329</v>
       </c>
       <c r="T8">
-        <v>0.01201660072163391</v>
+        <v>0.01823862333956329</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H9">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I9">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J9">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>388.908299118394</v>
+        <v>389.2008666666666</v>
       </c>
       <c r="N9">
-        <v>388.908299118394</v>
+        <v>1167.6026</v>
       </c>
       <c r="O9">
-        <v>0.4458058053637982</v>
+        <v>0.4265002985877158</v>
       </c>
       <c r="P9">
-        <v>0.4458058053637982</v>
+        <v>0.4265002985877158</v>
       </c>
       <c r="Q9">
-        <v>13350.7273993313</v>
+        <v>13373.87586074667</v>
       </c>
       <c r="R9">
-        <v>13350.7273993313</v>
+        <v>120364.88274672</v>
       </c>
       <c r="S9">
-        <v>0.1749347472690243</v>
+        <v>0.1320954107412783</v>
       </c>
       <c r="T9">
-        <v>0.1749347472690243</v>
+        <v>0.1320954107412783</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H10">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I10">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J10">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>126.78319617521</v>
+        <v>132.7388736666666</v>
       </c>
       <c r="N10">
-        <v>126.78319617521</v>
+        <v>398.216621</v>
       </c>
       <c r="O10">
-        <v>0.1453316501746329</v>
+        <v>0.1454600287453036</v>
       </c>
       <c r="P10">
-        <v>0.1453316501746329</v>
+        <v>0.1454600287453036</v>
       </c>
       <c r="Q10">
-        <v>4352.30591578578</v>
+        <v>4561.226272483466</v>
       </c>
       <c r="R10">
-        <v>4352.30591578578</v>
+        <v>41051.0364523512</v>
       </c>
       <c r="S10">
-        <v>0.05702831858087368</v>
+        <v>0.04505179083619627</v>
       </c>
       <c r="T10">
-        <v>0.05702831858087368</v>
+        <v>0.04505179083619627</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H11">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I11">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J11">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>130.898915652117</v>
+        <v>132.282102</v>
       </c>
       <c r="N11">
-        <v>130.898915652117</v>
+        <v>396.846306</v>
       </c>
       <c r="O11">
-        <v>0.150049501761275</v>
+        <v>0.1449594819354051</v>
       </c>
       <c r="P11">
-        <v>0.150049501761275</v>
+        <v>0.1449594819354051</v>
       </c>
       <c r="Q11">
-        <v>4493.593332158389</v>
+        <v>4545.530501764801</v>
       </c>
       <c r="R11">
-        <v>4493.593332158389</v>
+        <v>40909.7745158832</v>
       </c>
       <c r="S11">
-        <v>0.05887960935598709</v>
+        <v>0.04489676178541313</v>
       </c>
       <c r="T11">
-        <v>0.05887960935598709</v>
+        <v>0.04489676178541312</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H12">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I12">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J12">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.2797555117349</v>
+        <v>58.687468</v>
       </c>
       <c r="N12">
-        <v>58.2797555117349</v>
+        <v>176.062404</v>
       </c>
       <c r="O12">
-        <v>0.06680611702350119</v>
+        <v>0.06431183681508679</v>
       </c>
       <c r="P12">
-        <v>0.06680611702350119</v>
+        <v>0.06431183681508679</v>
       </c>
       <c r="Q12">
-        <v>2000.669902135416</v>
+        <v>2016.6422504032</v>
       </c>
       <c r="R12">
-        <v>2000.669902135416</v>
+        <v>18149.7802536288</v>
       </c>
       <c r="S12">
-        <v>0.02621480262688402</v>
+        <v>0.01991862263108773</v>
       </c>
       <c r="T12">
-        <v>0.02621480262688402</v>
+        <v>0.01991862263108773</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.3287284678566</v>
+        <v>34.3624</v>
       </c>
       <c r="H13">
-        <v>34.3287284678566</v>
+        <v>103.0872</v>
       </c>
       <c r="I13">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="J13">
-        <v>0.3924012320258356</v>
+        <v>0.3097193863138902</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>140.786527142657</v>
+        <v>145.898463</v>
       </c>
       <c r="N13">
-        <v>140.786527142657</v>
+        <v>437.695389</v>
       </c>
       <c r="O13">
-        <v>0.1613836764591583</v>
+        <v>0.1598807797267379</v>
       </c>
       <c r="P13">
-        <v>0.1613836764591583</v>
+        <v>0.1598807797267379</v>
       </c>
       <c r="Q13">
-        <v>4833.022462212795</v>
+        <v>5013.421344991199</v>
       </c>
       <c r="R13">
-        <v>4833.022462212795</v>
+        <v>45120.79210492079</v>
       </c>
       <c r="S13">
-        <v>0.06332715347143254</v>
+        <v>0.04951817698035151</v>
       </c>
       <c r="T13">
-        <v>0.06332715347143254</v>
+        <v>0.04951817698035151</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>52.0161233222375</v>
+        <v>0.04110466666666667</v>
       </c>
       <c r="H14">
-        <v>52.0161233222375</v>
+        <v>0.123314</v>
       </c>
       <c r="I14">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="J14">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.7148512276327</v>
+        <v>53.73758233333334</v>
       </c>
       <c r="N14">
-        <v>26.7148512276327</v>
+        <v>161.212747</v>
       </c>
       <c r="O14">
-        <v>0.03062324921763431</v>
+        <v>0.05888757418975077</v>
       </c>
       <c r="P14">
-        <v>0.03062324921763431</v>
+        <v>0.05888757418975077</v>
       </c>
       <c r="Q14">
-        <v>1389.60299599177</v>
+        <v>2.208865409284222</v>
       </c>
       <c r="R14">
-        <v>1389.60299599177</v>
+        <v>19.879788683558</v>
       </c>
       <c r="S14">
-        <v>0.01820798535069145</v>
+        <v>2.181723432681175E-05</v>
       </c>
       <c r="T14">
-        <v>0.01820798535069145</v>
+        <v>2.181723432681174E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>52.0161233222375</v>
+        <v>0.04110466666666667</v>
       </c>
       <c r="H15">
-        <v>52.0161233222375</v>
+        <v>0.123314</v>
       </c>
       <c r="I15">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="J15">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>388.908299118394</v>
+        <v>389.2008666666666</v>
       </c>
       <c r="N15">
-        <v>388.908299118394</v>
+        <v>1167.6026</v>
       </c>
       <c r="O15">
-        <v>0.4458058053637982</v>
+        <v>0.4265002985877158</v>
       </c>
       <c r="P15">
-        <v>0.4458058053637982</v>
+        <v>0.4265002985877158</v>
       </c>
       <c r="Q15">
-        <v>20229.50204798401</v>
+        <v>15.99797189071111</v>
       </c>
       <c r="R15">
-        <v>20229.50204798401</v>
+        <v>143.9817470164</v>
       </c>
       <c r="S15">
-        <v>0.2650674170996512</v>
+        <v>0.0001580139287918383</v>
       </c>
       <c r="T15">
-        <v>0.2650674170996512</v>
+        <v>0.0001580139287918383</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>52.0161233222375</v>
+        <v>0.04110466666666667</v>
       </c>
       <c r="H16">
-        <v>52.0161233222375</v>
+        <v>0.123314</v>
       </c>
       <c r="I16">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="J16">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>126.78319617521</v>
+        <v>132.7388736666666</v>
       </c>
       <c r="N16">
-        <v>126.78319617521</v>
+        <v>398.216621</v>
       </c>
       <c r="O16">
-        <v>0.1453316501746329</v>
+        <v>0.1454600287453036</v>
       </c>
       <c r="P16">
-        <v>0.1453316501746329</v>
+        <v>0.1454600287453036</v>
       </c>
       <c r="Q16">
-        <v>6594.770367437152</v>
+        <v>5.456187155777111</v>
       </c>
       <c r="R16">
-        <v>6594.770367437152</v>
+        <v>49.105684401994</v>
       </c>
       <c r="S16">
-        <v>0.08641135819930319</v>
+        <v>5.389142915099748E-05</v>
       </c>
       <c r="T16">
-        <v>0.08641135819930319</v>
+        <v>5.389142915099748E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>52.0161233222375</v>
+        <v>0.04110466666666667</v>
       </c>
       <c r="H17">
-        <v>52.0161233222375</v>
+        <v>0.123314</v>
       </c>
       <c r="I17">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="J17">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>130.898915652117</v>
+        <v>132.282102</v>
       </c>
       <c r="N17">
-        <v>130.898915652117</v>
+        <v>396.846306</v>
       </c>
       <c r="O17">
-        <v>0.150049501761275</v>
+        <v>0.1449594819354051</v>
       </c>
       <c r="P17">
-        <v>0.150049501761275</v>
+        <v>0.1449594819354051</v>
       </c>
       <c r="Q17">
-        <v>6808.854139307683</v>
+        <v>5.437411708676001</v>
       </c>
       <c r="R17">
-        <v>6808.854139307683</v>
+        <v>48.93670537808401</v>
       </c>
       <c r="S17">
-        <v>0.08921650052648804</v>
+        <v>5.37059817591945E-05</v>
       </c>
       <c r="T17">
-        <v>0.08921650052648804</v>
+        <v>5.370598175919449E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>52.0161233222375</v>
+        <v>0.04110466666666667</v>
       </c>
       <c r="H18">
-        <v>52.0161233222375</v>
+        <v>0.123314</v>
       </c>
       <c r="I18">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="J18">
-        <v>0.5945804516460792</v>
+        <v>0.0003704896088351518</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.2797555117349</v>
+        <v>58.687468</v>
       </c>
       <c r="N18">
-        <v>58.2797555117349</v>
+        <v>176.062404</v>
       </c>
       <c r="O18">
-        <v>0.06680611702350119</v>
+        <v>0.06431183681508679</v>
       </c>
       <c r="P18">
-        <v>0.06680611702350119</v>
+        <v>0.06431183681508679</v>
       </c>
       <c r="Q18">
-        <v>3031.486949888253</v>
+        <v>2.412328809650667</v>
       </c>
       <c r="R18">
-        <v>3031.486949888253</v>
+        <v>21.710959286856</v>
       </c>
       <c r="S18">
-        <v>0.03972161123255415</v>
+        <v>2.382686726509162E-05</v>
       </c>
       <c r="T18">
-        <v>0.03972161123255415</v>
+        <v>2.382686726509162E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.04110466666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.123314</v>
+      </c>
+      <c r="I19">
+        <v>0.0003704896088351518</v>
+      </c>
+      <c r="J19">
+        <v>0.0003704896088351518</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>145.898463</v>
+      </c>
+      <c r="N19">
+        <v>437.695389</v>
+      </c>
+      <c r="O19">
+        <v>0.1598807797267379</v>
+      </c>
+      <c r="P19">
+        <v>0.1598807797267379</v>
+      </c>
+      <c r="Q19">
+        <v>5.997107688794</v>
+      </c>
+      <c r="R19">
+        <v>53.973969199146</v>
+      </c>
+      <c r="S19">
+        <v>5.923416754121819E-05</v>
+      </c>
+      <c r="T19">
+        <v>5.923416754121818E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.077003</v>
+      </c>
+      <c r="H20">
+        <v>0.231009</v>
+      </c>
+      <c r="I20">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J20">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>53.73758233333334</v>
+      </c>
+      <c r="N20">
+        <v>161.212747</v>
+      </c>
+      <c r="O20">
+        <v>0.05888757418975077</v>
+      </c>
+      <c r="P20">
+        <v>0.05888757418975077</v>
+      </c>
+      <c r="Q20">
+        <v>4.137955052413667</v>
+      </c>
+      <c r="R20">
+        <v>37.241595471723</v>
+      </c>
+      <c r="S20">
+        <v>4.087108912696413E-05</v>
+      </c>
+      <c r="T20">
+        <v>4.087108912696412E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.077003</v>
+      </c>
+      <c r="H21">
+        <v>0.231009</v>
+      </c>
+      <c r="I21">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J21">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>389.2008666666666</v>
+      </c>
+      <c r="N21">
+        <v>1167.6026</v>
+      </c>
+      <c r="O21">
+        <v>0.4265002985877158</v>
+      </c>
+      <c r="P21">
+        <v>0.4265002985877158</v>
+      </c>
+      <c r="Q21">
+        <v>29.96963433593333</v>
+      </c>
+      <c r="R21">
+        <v>269.7267090234</v>
+      </c>
+      <c r="S21">
+        <v>0.0002960137508820878</v>
+      </c>
+      <c r="T21">
+        <v>0.0002960137508820877</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.077003</v>
+      </c>
+      <c r="H22">
+        <v>0.231009</v>
+      </c>
+      <c r="I22">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J22">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>132.7388736666666</v>
+      </c>
+      <c r="N22">
+        <v>398.216621</v>
+      </c>
+      <c r="O22">
+        <v>0.1454600287453036</v>
+      </c>
+      <c r="P22">
+        <v>0.1454600287453036</v>
+      </c>
+      <c r="Q22">
+        <v>10.22129148895433</v>
+      </c>
+      <c r="R22">
+        <v>91.99162340058899</v>
+      </c>
+      <c r="S22">
+        <v>0.0001009569485763399</v>
+      </c>
+      <c r="T22">
+        <v>0.0001009569485763399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.077003</v>
+      </c>
+      <c r="H23">
+        <v>0.231009</v>
+      </c>
+      <c r="I23">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J23">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>132.282102</v>
+      </c>
+      <c r="N23">
+        <v>396.846306</v>
+      </c>
+      <c r="O23">
+        <v>0.1449594819354051</v>
+      </c>
+      <c r="P23">
+        <v>0.1449594819354051</v>
+      </c>
+      <c r="Q23">
+        <v>10.186118700306</v>
+      </c>
+      <c r="R23">
+        <v>91.675068302754</v>
+      </c>
+      <c r="S23">
+        <v>0.0001006095426327081</v>
+      </c>
+      <c r="T23">
+        <v>0.000100609542632708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.077003</v>
+      </c>
+      <c r="H24">
+        <v>0.231009</v>
+      </c>
+      <c r="I24">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J24">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>58.687468</v>
+      </c>
+      <c r="N24">
+        <v>176.062404</v>
+      </c>
+      <c r="O24">
+        <v>0.06431183681508679</v>
+      </c>
+      <c r="P24">
+        <v>0.06431183681508679</v>
+      </c>
+      <c r="Q24">
+        <v>4.519111098404</v>
+      </c>
+      <c r="R24">
+        <v>40.671999885636</v>
+      </c>
+      <c r="S24">
+        <v>4.463581410092569E-05</v>
+      </c>
+      <c r="T24">
+        <v>4.463581410092568E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.077003</v>
+      </c>
+      <c r="H25">
+        <v>0.231009</v>
+      </c>
+      <c r="I25">
+        <v>0.0006940528573187115</v>
+      </c>
+      <c r="J25">
+        <v>0.0006940528573187114</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>145.898463</v>
+      </c>
+      <c r="N25">
+        <v>437.695389</v>
+      </c>
+      <c r="O25">
+        <v>0.1598807797267379</v>
+      </c>
+      <c r="P25">
+        <v>0.1598807797267379</v>
+      </c>
+      <c r="Q25">
+        <v>11.234619346389</v>
+      </c>
+      <c r="R25">
+        <v>101.111574117501</v>
+      </c>
+      <c r="S25">
+        <v>0.0001109657119996859</v>
+      </c>
+      <c r="T25">
+        <v>0.0001109657119996859</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H26">
+        <v>225.716302</v>
+      </c>
+      <c r="I26">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J26">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>53.73758233333334</v>
+      </c>
+      <c r="N26">
+        <v>161.212747</v>
+      </c>
+      <c r="O26">
+        <v>0.05888757418975077</v>
+      </c>
+      <c r="P26">
+        <v>0.05888757418975077</v>
+      </c>
+      <c r="Q26">
+        <v>4043.14945423351</v>
+      </c>
+      <c r="R26">
+        <v>36388.3450881016</v>
+      </c>
+      <c r="S26">
+        <v>0.03993468261604851</v>
+      </c>
+      <c r="T26">
+        <v>0.03993468261604851</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H27">
+        <v>225.716302</v>
+      </c>
+      <c r="I27">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J27">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>389.2008666666666</v>
+      </c>
+      <c r="N27">
+        <v>1167.6026</v>
+      </c>
+      <c r="O27">
+        <v>0.4265002985877158</v>
+      </c>
+      <c r="P27">
+        <v>0.4265002985877158</v>
+      </c>
+      <c r="Q27">
+        <v>29282.99345306502</v>
+      </c>
+      <c r="R27">
+        <v>263546.9410775852</v>
+      </c>
+      <c r="S27">
+        <v>0.2892317147394867</v>
+      </c>
+      <c r="T27">
+        <v>0.2892317147394867</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>52.0161233222375</v>
-      </c>
-      <c r="H19">
-        <v>52.0161233222375</v>
-      </c>
-      <c r="I19">
-        <v>0.5945804516460792</v>
-      </c>
-      <c r="J19">
-        <v>0.5945804516460792</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>140.786527142657</v>
-      </c>
-      <c r="N19">
-        <v>140.786527142657</v>
-      </c>
-      <c r="O19">
-        <v>0.1613836764591583</v>
-      </c>
-      <c r="P19">
-        <v>0.1613836764591583</v>
-      </c>
-      <c r="Q19">
-        <v>7323.169357961983</v>
-      </c>
-      <c r="R19">
-        <v>7323.169357961983</v>
-      </c>
-      <c r="S19">
-        <v>0.09595557923739105</v>
-      </c>
-      <c r="T19">
-        <v>0.09595557923739105</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H28">
+        <v>225.716302</v>
+      </c>
+      <c r="I28">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J28">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>132.7388736666666</v>
+      </c>
+      <c r="N28">
+        <v>398.216621</v>
+      </c>
+      <c r="O28">
+        <v>0.1454600287453036</v>
+      </c>
+      <c r="P28">
+        <v>0.1454600287453036</v>
+      </c>
+      <c r="Q28">
+        <v>9987.109231895058</v>
+      </c>
+      <c r="R28">
+        <v>89883.98308705553</v>
+      </c>
+      <c r="S28">
+        <v>0.09864390172614745</v>
+      </c>
+      <c r="T28">
+        <v>0.09864390172614748</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H29">
+        <v>225.716302</v>
+      </c>
+      <c r="I29">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J29">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>132.282102</v>
+      </c>
+      <c r="N29">
+        <v>396.846306</v>
+      </c>
+      <c r="O29">
+        <v>0.1449594819354051</v>
+      </c>
+      <c r="P29">
+        <v>0.1449594819354051</v>
+      </c>
+      <c r="Q29">
+        <v>9952.742294742267</v>
+      </c>
+      <c r="R29">
+        <v>89574.68065268041</v>
+      </c>
+      <c r="S29">
+        <v>0.09830445527648794</v>
+      </c>
+      <c r="T29">
+        <v>0.09830445527648794</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H30">
+        <v>225.716302</v>
+      </c>
+      <c r="I30">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J30">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>58.687468</v>
+      </c>
+      <c r="N30">
+        <v>176.062404</v>
+      </c>
+      <c r="O30">
+        <v>0.06431183681508679</v>
+      </c>
+      <c r="P30">
+        <v>0.06431183681508679</v>
+      </c>
+      <c r="Q30">
+        <v>4415.572750234444</v>
+      </c>
+      <c r="R30">
+        <v>39740.15475211</v>
+      </c>
+      <c r="S30">
+        <v>0.04361315314823404</v>
+      </c>
+      <c r="T30">
+        <v>0.04361315314823404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>75.23876733333333</v>
+      </c>
+      <c r="H31">
+        <v>225.716302</v>
+      </c>
+      <c r="I31">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="J31">
+        <v>0.6781512596760869</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>145.898463</v>
+      </c>
+      <c r="N31">
+        <v>437.695389</v>
+      </c>
+      <c r="O31">
+        <v>0.1598807797267379</v>
+      </c>
+      <c r="P31">
+        <v>0.1598807797267379</v>
+      </c>
+      <c r="Q31">
+        <v>10977.22051194794</v>
+      </c>
+      <c r="R31">
+        <v>98794.98460753147</v>
+      </c>
+      <c r="S31">
+        <v>0.1084233521696823</v>
+      </c>
+      <c r="T31">
+        <v>0.1084233521696823</v>
       </c>
     </row>
   </sheetData>
